--- a/arhiv/New folder/recnik_za_o.xlsx
+++ b/arhiv/New folder/recnik_za_o.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiko\PycharmProjects\novpisane\data\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiko\PycharmProjects\novpisane\arhiv\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A399E-7CBD-43DF-9071-4A87A82C7BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B29631-EA12-4814-9256-A157355A5D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="2963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="3034">
   <si>
     <t>abhorrence</t>
   </si>
@@ -8909,6 +8909,219 @@
   </si>
   <si>
     <t>ɒNSLɔT</t>
+  </si>
+  <si>
+    <t>ɒNW©D</t>
+  </si>
+  <si>
+    <t>ÚLɒÑ</t>
+  </si>
+  <si>
+    <t>ɒSK©</t>
+  </si>
+  <si>
+    <t>ɒSK©Z</t>
+  </si>
+  <si>
+    <t>ɒZMÖSIS</t>
+  </si>
+  <si>
+    <t>ɒS</t>
+  </si>
+  <si>
+    <t>ɒSTɛNTÉʃəN</t>
+  </si>
+  <si>
+    <t>ɒSTÝɒP©ÖSIS</t>
+  </si>
+  <si>
+    <t>ɒSTRəSIZəM</t>
+  </si>
+  <si>
+    <t>ɒSTRəSÍZ</t>
+  </si>
+  <si>
+    <t>ɒSTRəSÍZћ</t>
+  </si>
+  <si>
+    <t>ɒSTRIÇ</t>
+  </si>
+  <si>
+    <t>PÉɒF</t>
+  </si>
+  <si>
+    <t>PÉɒFS</t>
+  </si>
+  <si>
+    <t>PɛNTəKɒST</t>
+  </si>
+  <si>
+    <t>PɛRIDɒT/PɛRIDÖ</t>
+  </si>
+  <si>
+    <t>PIÑPɒÑ</t>
+  </si>
+  <si>
+    <t>PLÉɒF</t>
+  </si>
+  <si>
+    <t>PLÉɒFS</t>
+  </si>
+  <si>
+    <t>PɒDKÆST</t>
+  </si>
+  <si>
+    <t>PɒDKÆST©</t>
+  </si>
+  <si>
+    <t>PɒDKÆSTIÑ</t>
+  </si>
+  <si>
+    <t>PɒM</t>
+  </si>
+  <si>
+    <t>PɒÑ</t>
+  </si>
+  <si>
+    <t>PɒPÝKɒK</t>
+  </si>
+  <si>
+    <t>PɒSTIRY©</t>
+  </si>
+  <si>
+    <t>PɒSTIRY©Z</t>
+  </si>
+  <si>
+    <t>PRɒKTɒSKÖP</t>
+  </si>
+  <si>
+    <t>PRɒDəKTS/PRɒDəKS</t>
+  </si>
+  <si>
+    <t>PRɒF</t>
+  </si>
+  <si>
+    <t>PRɒFəNÉʃəN</t>
+  </si>
+  <si>
+    <t>PRɒFLIGÆSÝ</t>
+  </si>
+  <si>
+    <t>PRɒFLIGÉT</t>
+  </si>
+  <si>
+    <t>PRəLɒÑ</t>
+  </si>
+  <si>
+    <t>PRəLɒÑћ</t>
+  </si>
+  <si>
+    <t>PRÖLɒÑIÑ</t>
+  </si>
+  <si>
+    <t>PRəLɒÑZ</t>
+  </si>
+  <si>
+    <t>PRɒÑ</t>
+  </si>
+  <si>
+    <t>PRɒÑћ</t>
+  </si>
+  <si>
+    <t>PRɒNG©</t>
+  </si>
+  <si>
+    <t>PRɒÑZ</t>
+  </si>
+  <si>
+    <t>PRɒSθɛSIS/PRɒSθÏSIS</t>
+  </si>
+  <si>
+    <t>PRÖTəKɒLZ</t>
+  </si>
+  <si>
+    <t>PYɒÑYÆÑ</t>
+  </si>
+  <si>
+    <t>PYɒÑYÆÑZ</t>
+  </si>
+  <si>
+    <t>KWɒRəNTÏN</t>
+  </si>
+  <si>
+    <t>KWɒRəNTÏNћ/KWɒRəNTÍNћ</t>
+  </si>
+  <si>
+    <t>KWɒRəNTÏNZ/KWɒRəNTÍNZ</t>
+  </si>
+  <si>
+    <t>KWɒRəNTÏNIÑ/KWɒRəNTÍNIÑ</t>
+  </si>
+  <si>
+    <t>KWɒRəL</t>
+  </si>
+  <si>
+    <t>KWɒRəLћ</t>
+  </si>
+  <si>
+    <t>KWɒRəLZ</t>
+  </si>
+  <si>
+    <t>KWɒRəLSəM</t>
+  </si>
+  <si>
+    <t>KWɒRÝZ</t>
+  </si>
+  <si>
+    <t>KWɒRÝ</t>
+  </si>
+  <si>
+    <t>KWɒRÝIÑ</t>
+  </si>
+  <si>
+    <t>KWɒʃ</t>
+  </si>
+  <si>
+    <t>KWɒʃђ</t>
+  </si>
+  <si>
+    <t>KWɒʃIÑ</t>
+  </si>
+  <si>
+    <t>RÏKɒN</t>
+  </si>
+  <si>
+    <t>RÝKɒÑK©</t>
+  </si>
+  <si>
+    <t>RÝKɒÑK©ћ</t>
+  </si>
+  <si>
+    <t>RÝKRɒS</t>
+  </si>
+  <si>
+    <t>RÝFɒRəST</t>
+  </si>
+  <si>
+    <t>RÏFɒRəSTÉʃəN</t>
+  </si>
+  <si>
+    <t>RÝNɒMINÉT</t>
+  </si>
+  <si>
+    <t>RÝɒKYÚPÍ</t>
+  </si>
+  <si>
+    <t>RÝɒF©</t>
+  </si>
+  <si>
+    <t>RÝɒF©ћ</t>
+  </si>
+  <si>
+    <t>RÝɒF©IÑ</t>
+  </si>
+  <si>
+    <t>RÝʃɒT</t>
   </si>
 </sst>
 </file>
@@ -9318,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="F227" sqref="F227"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="C682" sqref="C682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16939,7 +17152,7 @@
       <c r="B545" t="s">
         <v>1535</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C545" s="1" t="s">
         <v>2228</v>
       </c>
       <c r="F545" t="s">
@@ -16953,8 +17166,8 @@
       <c r="B546" t="s">
         <v>1536</v>
       </c>
-      <c r="C546" t="s">
-        <v>2229</v>
+      <c r="C546" s="1" t="s">
+        <v>2963</v>
       </c>
       <c r="F546" t="s">
         <v>2229</v>
@@ -16967,8 +17180,8 @@
       <c r="B547" t="s">
         <v>1459</v>
       </c>
-      <c r="C547" t="s">
-        <v>2230</v>
+      <c r="C547" s="1" t="s">
+        <v>2964</v>
       </c>
       <c r="F547" t="s">
         <v>2230</v>
@@ -16981,7 +17194,7 @@
       <c r="B548" t="s">
         <v>1541</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C548" s="1" t="s">
         <v>2231</v>
       </c>
       <c r="F548" t="s">
@@ -16995,7 +17208,7 @@
       <c r="B549" t="s">
         <v>1543</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C549" s="1" t="s">
         <v>2232</v>
       </c>
       <c r="F549" t="s">
@@ -17009,7 +17222,7 @@
       <c r="B550" t="s">
         <v>1542</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C550" s="1" t="s">
         <v>2233</v>
       </c>
       <c r="F550" t="s">
@@ -17023,7 +17236,7 @@
       <c r="B551" t="s">
         <v>1544</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C551" s="1" t="s">
         <v>2234</v>
       </c>
       <c r="F551" t="s">
@@ -17037,7 +17250,7 @@
       <c r="B552" t="s">
         <v>1546</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C552" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="F552" t="s">
@@ -17051,7 +17264,7 @@
       <c r="B553" t="s">
         <v>1545</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C553" s="1" t="s">
         <v>2236</v>
       </c>
       <c r="F553" t="s">
@@ -17065,7 +17278,7 @@
       <c r="B554" t="s">
         <v>1548</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C554" s="1" t="s">
         <v>2237</v>
       </c>
       <c r="F554" t="s">
@@ -17079,7 +17292,7 @@
       <c r="B555" t="s">
         <v>1547</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C555" s="1" t="s">
         <v>2238</v>
       </c>
       <c r="F555" t="s">
@@ -17093,7 +17306,7 @@
       <c r="B556" t="s">
         <v>1549</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C556" s="1" t="s">
         <v>2239</v>
       </c>
       <c r="F556" t="s">
@@ -17107,7 +17320,7 @@
       <c r="B557" t="s">
         <v>1550</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C557" s="1" t="s">
         <v>2240</v>
       </c>
       <c r="F557" t="s">
@@ -17121,7 +17334,7 @@
       <c r="B558" t="s">
         <v>1559</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C558" s="1" t="s">
         <v>2241</v>
       </c>
       <c r="F558" t="s">
@@ -17135,7 +17348,7 @@
       <c r="B559" t="s">
         <v>1560</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C559" s="1" t="s">
         <v>2242</v>
       </c>
       <c r="F559" t="s">
@@ -17149,7 +17362,7 @@
       <c r="B560" t="s">
         <v>1561</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C560" s="1" t="s">
         <v>2243</v>
       </c>
       <c r="F560" t="s">
@@ -17163,7 +17376,7 @@
       <c r="B561" t="s">
         <v>1552</v>
       </c>
-      <c r="C561" t="s">
+      <c r="C561" s="1" t="s">
         <v>2244</v>
       </c>
       <c r="F561" t="s">
@@ -17177,7 +17390,7 @@
       <c r="B562" t="s">
         <v>1656</v>
       </c>
-      <c r="C562" t="s">
+      <c r="C562" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="F562" t="s">
@@ -17191,7 +17404,7 @@
       <c r="B563" t="s">
         <v>1657</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C563" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="F563" t="s">
@@ -17205,7 +17418,7 @@
       <c r="B564" t="s">
         <v>1554</v>
       </c>
-      <c r="C564" t="s">
+      <c r="C564" s="1" t="s">
         <v>2247</v>
       </c>
       <c r="F564" t="s">
@@ -17219,7 +17432,7 @@
       <c r="B565" t="s">
         <v>1553</v>
       </c>
-      <c r="C565" t="s">
+      <c r="C565" s="1" t="s">
         <v>2248</v>
       </c>
       <c r="F565" t="s">
@@ -17233,7 +17446,7 @@
       <c r="B566" t="s">
         <v>1659</v>
       </c>
-      <c r="C566" t="s">
+      <c r="C566" s="1" t="s">
         <v>2249</v>
       </c>
       <c r="F566" t="s">
@@ -17247,7 +17460,7 @@
       <c r="B567" t="s">
         <v>1557</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C567" s="1" t="s">
         <v>2250</v>
       </c>
       <c r="F567" t="s">
@@ -17261,7 +17474,7 @@
       <c r="B568" t="s">
         <v>1558</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C568" s="1" t="s">
         <v>2251</v>
       </c>
       <c r="F568" t="s">
@@ -17275,7 +17488,7 @@
       <c r="B569" t="s">
         <v>1555</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C569" s="1" t="s">
         <v>2252</v>
       </c>
       <c r="F569" t="s">
@@ -17289,7 +17502,7 @@
       <c r="B570" t="s">
         <v>1556</v>
       </c>
-      <c r="C570" t="s">
+      <c r="C570" s="1" t="s">
         <v>2253</v>
       </c>
       <c r="F570" t="s">
@@ -17303,7 +17516,7 @@
       <c r="B571" t="s">
         <v>1658</v>
       </c>
-      <c r="C571" t="s">
+      <c r="C571" s="1" t="s">
         <v>2254</v>
       </c>
       <c r="F571" t="s">
@@ -17317,7 +17530,7 @@
       <c r="B572" t="s">
         <v>1563</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C572" s="1" t="s">
         <v>2255</v>
       </c>
       <c r="F572" t="s">
@@ -17331,7 +17544,7 @@
       <c r="B573" t="s">
         <v>1564</v>
       </c>
-      <c r="C573" t="s">
+      <c r="C573" s="1" t="s">
         <v>2256</v>
       </c>
       <c r="F573" t="s">
@@ -17345,7 +17558,7 @@
       <c r="B574" t="s">
         <v>1663</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C574" s="1" t="s">
         <v>2257</v>
       </c>
       <c r="F574" t="s">
@@ -17359,7 +17572,7 @@
       <c r="B575" t="s">
         <v>1662</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C575" s="1" t="s">
         <v>2258</v>
       </c>
       <c r="F575" t="s">
@@ -17373,7 +17586,7 @@
       <c r="B576" t="s">
         <v>1551</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C576" s="1" t="s">
         <v>2259</v>
       </c>
       <c r="F576" t="s">
@@ -17387,7 +17600,7 @@
       <c r="B577" t="s">
         <v>1562</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C577" s="1" t="s">
         <v>2260</v>
       </c>
       <c r="F577" t="s">
@@ -17401,7 +17614,7 @@
       <c r="B578" t="s">
         <v>1669</v>
       </c>
-      <c r="C578" t="s">
+      <c r="C578" s="1" t="s">
         <v>2261</v>
       </c>
       <c r="F578" t="s">
@@ -17415,7 +17628,7 @@
       <c r="B579" t="s">
         <v>1667</v>
       </c>
-      <c r="C579" t="s">
+      <c r="C579" s="1" t="s">
         <v>2262</v>
       </c>
       <c r="F579" t="s">
@@ -17429,7 +17642,7 @@
       <c r="B580" t="s">
         <v>1668</v>
       </c>
-      <c r="C580" t="s">
+      <c r="C580" s="1" t="s">
         <v>2263</v>
       </c>
       <c r="F580" t="s">
@@ -17443,7 +17656,7 @@
       <c r="B581" t="s">
         <v>1580</v>
       </c>
-      <c r="C581" t="s">
+      <c r="C581" s="1" t="s">
         <v>2264</v>
       </c>
       <c r="F581" t="s">
@@ -17457,7 +17670,7 @@
       <c r="B582" t="s">
         <v>1581</v>
       </c>
-      <c r="C582" t="s">
+      <c r="C582" s="1" t="s">
         <v>2265</v>
       </c>
       <c r="F582" t="s">
@@ -17471,7 +17684,7 @@
       <c r="B583" t="s">
         <v>1106</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C583" s="1" t="s">
         <v>2266</v>
       </c>
       <c r="F583" t="s">
@@ -17485,7 +17698,7 @@
       <c r="B584" t="s">
         <v>1105</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C584" s="1" t="s">
         <v>2267</v>
       </c>
       <c r="F584" t="s">
@@ -17499,8 +17712,8 @@
       <c r="B585" t="s">
         <v>1565</v>
       </c>
-      <c r="C585" t="s">
-        <v>2268</v>
+      <c r="C585" s="1" t="s">
+        <v>2965</v>
       </c>
       <c r="F585" t="s">
         <v>2268</v>
@@ -17513,8 +17726,8 @@
       <c r="B586" t="s">
         <v>1566</v>
       </c>
-      <c r="C586" t="s">
-        <v>2269</v>
+      <c r="C586" s="1" t="s">
+        <v>2966</v>
       </c>
       <c r="F586" t="s">
         <v>2269</v>
@@ -17527,7 +17740,7 @@
       <c r="B587" t="s">
         <v>1577</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C587" s="1" t="s">
         <v>2270</v>
       </c>
       <c r="F587" t="s">
@@ -17541,8 +17754,8 @@
       <c r="B588" t="s">
         <v>1093</v>
       </c>
-      <c r="C588" t="s">
-        <v>2271</v>
+      <c r="C588" s="1" t="s">
+        <v>2967</v>
       </c>
       <c r="F588" t="s">
         <v>2271</v>
@@ -17555,8 +17768,8 @@
       <c r="B589" t="s">
         <v>1578</v>
       </c>
-      <c r="C589" t="s">
-        <v>2272</v>
+      <c r="C589" s="1" t="s">
+        <v>2968</v>
       </c>
       <c r="F589" t="s">
         <v>2272</v>
@@ -17569,8 +17782,8 @@
       <c r="B590" t="s">
         <v>1660</v>
       </c>
-      <c r="C590" t="s">
-        <v>2273</v>
+      <c r="C590" s="1" t="s">
+        <v>2969</v>
       </c>
       <c r="F590" t="s">
         <v>2273</v>
@@ -17583,8 +17796,8 @@
       <c r="B591" t="s">
         <v>1661</v>
       </c>
-      <c r="C591" t="s">
-        <v>2274</v>
+      <c r="C591" s="1" t="s">
+        <v>2970</v>
       </c>
       <c r="F591" t="s">
         <v>2274</v>
@@ -17597,8 +17810,8 @@
       <c r="B592" t="s">
         <v>1569</v>
       </c>
-      <c r="C592" t="s">
-        <v>2275</v>
+      <c r="C592" s="1" t="s">
+        <v>2971</v>
       </c>
       <c r="F592" t="s">
         <v>2275</v>
@@ -17611,8 +17824,8 @@
       <c r="B593" t="s">
         <v>1567</v>
       </c>
-      <c r="C593" t="s">
-        <v>2276</v>
+      <c r="C593" s="1" t="s">
+        <v>2972</v>
       </c>
       <c r="F593" t="s">
         <v>2276</v>
@@ -17625,8 +17838,8 @@
       <c r="B594" t="s">
         <v>1568</v>
       </c>
-      <c r="C594" t="s">
-        <v>2277</v>
+      <c r="C594" s="1" t="s">
+        <v>2973</v>
       </c>
       <c r="F594" t="s">
         <v>2277</v>
@@ -17639,8 +17852,8 @@
       <c r="B595" t="s">
         <v>1574</v>
       </c>
-      <c r="C595" t="s">
-        <v>2278</v>
+      <c r="C595" s="1" t="s">
+        <v>2974</v>
       </c>
       <c r="F595" t="s">
         <v>2278</v>
@@ -17653,7 +17866,7 @@
       <c r="B596" t="s">
         <v>1655</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C596" s="1" t="s">
         <v>2279</v>
       </c>
       <c r="F596" t="s">
@@ -17667,7 +17880,7 @@
       <c r="B597" t="s">
         <v>1375</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C597" s="1" t="s">
         <v>2280</v>
       </c>
       <c r="F597" t="s">
@@ -17681,7 +17894,7 @@
       <c r="B598" t="s">
         <v>1376</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C598" s="1" t="s">
         <v>2281</v>
       </c>
       <c r="F598" t="s">
@@ -17695,8 +17908,8 @@
       <c r="B599" t="s">
         <v>1353</v>
       </c>
-      <c r="C599" t="s">
-        <v>2282</v>
+      <c r="C599" s="1" t="s">
+        <v>2975</v>
       </c>
       <c r="F599" t="s">
         <v>2282</v>
@@ -17709,8 +17922,8 @@
       <c r="B600" t="s">
         <v>1354</v>
       </c>
-      <c r="C600" t="s">
-        <v>2283</v>
+      <c r="C600" s="1" t="s">
+        <v>2976</v>
       </c>
       <c r="F600" t="s">
         <v>2283</v>
@@ -17723,8 +17936,8 @@
       <c r="B601" t="s">
         <v>1377</v>
       </c>
-      <c r="C601" t="s">
-        <v>2284</v>
+      <c r="C601" s="1" t="s">
+        <v>2977</v>
       </c>
       <c r="F601" t="s">
         <v>2284</v>
@@ -17737,8 +17950,8 @@
       <c r="B602" t="s">
         <v>1378</v>
       </c>
-      <c r="C602" t="s">
-        <v>2285</v>
+      <c r="C602" s="1" t="s">
+        <v>2978</v>
       </c>
       <c r="F602" t="s">
         <v>2285</v>
@@ -17751,7 +17964,7 @@
       <c r="B603" t="s">
         <v>1592</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C603" s="1" t="s">
         <v>2286</v>
       </c>
       <c r="F603" t="s">
@@ -17765,7 +17978,7 @@
       <c r="B604" t="s">
         <v>1169</v>
       </c>
-      <c r="C604" t="s">
+      <c r="C604" s="1" t="s">
         <v>2287</v>
       </c>
       <c r="F604" t="s">
@@ -17779,7 +17992,7 @@
       <c r="B605" t="s">
         <v>1170</v>
       </c>
-      <c r="C605" t="s">
+      <c r="C605" s="1" t="s">
         <v>2288</v>
       </c>
       <c r="F605" t="s">
@@ -17793,7 +18006,7 @@
       <c r="B606" t="s">
         <v>1591</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C606" s="1" t="s">
         <v>2289</v>
       </c>
       <c r="F606" t="s">
@@ -17807,8 +18020,8 @@
       <c r="B607" t="s">
         <v>1379</v>
       </c>
-      <c r="C607" t="s">
-        <v>2290</v>
+      <c r="C607" s="1" t="s">
+        <v>2979</v>
       </c>
       <c r="F607" t="s">
         <v>2290</v>
@@ -17821,8 +18034,8 @@
       <c r="B608" t="s">
         <v>1357</v>
       </c>
-      <c r="C608" t="s">
-        <v>2291</v>
+      <c r="C608" s="1" t="s">
+        <v>2980</v>
       </c>
       <c r="F608" t="s">
         <v>2291</v>
@@ -17835,8 +18048,8 @@
       <c r="B609" t="s">
         <v>1358</v>
       </c>
-      <c r="C609" t="s">
-        <v>2292</v>
+      <c r="C609" s="1" t="s">
+        <v>2981</v>
       </c>
       <c r="F609" t="s">
         <v>2292</v>
@@ -17849,8 +18062,8 @@
       <c r="B610" t="s">
         <v>1368</v>
       </c>
-      <c r="C610" t="s">
-        <v>2293</v>
+      <c r="C610" s="1" t="s">
+        <v>2982</v>
       </c>
       <c r="F610" t="s">
         <v>2293</v>
@@ -17863,8 +18076,8 @@
       <c r="B611" t="s">
         <v>1369</v>
       </c>
-      <c r="C611" t="s">
-        <v>2294</v>
+      <c r="C611" s="1" t="s">
+        <v>2983</v>
       </c>
       <c r="F611" t="s">
         <v>2294</v>
@@ -17877,8 +18090,8 @@
       <c r="B612" t="s">
         <v>1370</v>
       </c>
-      <c r="C612" t="s">
-        <v>2295</v>
+      <c r="C612" s="1" t="s">
+        <v>2984</v>
       </c>
       <c r="F612" t="s">
         <v>2295</v>
@@ -17891,7 +18104,7 @@
       <c r="B613" t="s">
         <v>1630</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C613" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="F613" t="s">
@@ -17905,8 +18118,8 @@
       <c r="B614" t="s">
         <v>1003</v>
       </c>
-      <c r="C614" t="s">
-        <v>2297</v>
+      <c r="C614" s="1" t="s">
+        <v>2985</v>
       </c>
       <c r="F614" t="s">
         <v>2297</v>
@@ -17919,7 +18132,7 @@
       <c r="B615" t="s">
         <v>1371</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C615" s="1" t="s">
         <v>2298</v>
       </c>
       <c r="F615" t="s">
@@ -17933,8 +18146,8 @@
       <c r="B616" t="s">
         <v>1006</v>
       </c>
-      <c r="C616" t="s">
-        <v>2299</v>
+      <c r="C616" s="1" t="s">
+        <v>2986</v>
       </c>
       <c r="F616" t="s">
         <v>2299</v>
@@ -17947,7 +18160,7 @@
       <c r="B617" t="s">
         <v>1372</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C617" s="1" t="s">
         <v>2300</v>
       </c>
       <c r="F617" t="s">
@@ -17961,8 +18174,8 @@
       <c r="B618" t="s">
         <v>1373</v>
       </c>
-      <c r="C618" t="s">
-        <v>2301</v>
+      <c r="C618" s="1" t="s">
+        <v>2987</v>
       </c>
       <c r="F618" t="s">
         <v>2301</v>
@@ -17975,7 +18188,7 @@
       <c r="B619" t="s">
         <v>1007</v>
       </c>
-      <c r="C619" t="s">
+      <c r="C619" s="1" t="s">
         <v>2302</v>
       </c>
       <c r="F619" t="s">
@@ -17989,7 +18202,7 @@
       <c r="B620" t="s">
         <v>1374</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C620" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="F620" t="s">
@@ -18003,8 +18216,8 @@
       <c r="B621" t="s">
         <v>1004</v>
       </c>
-      <c r="C621" t="s">
-        <v>2304</v>
+      <c r="C621" s="1" t="s">
+        <v>2988</v>
       </c>
       <c r="F621" t="s">
         <v>2304</v>
@@ -18017,8 +18230,8 @@
       <c r="B622" t="s">
         <v>1005</v>
       </c>
-      <c r="C622" t="s">
-        <v>2305</v>
+      <c r="C622" s="1" t="s">
+        <v>2989</v>
       </c>
       <c r="F622" t="s">
         <v>2305</v>
@@ -18031,7 +18244,7 @@
       <c r="B623" t="s">
         <v>1627</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C623" s="1" t="s">
         <v>2306</v>
       </c>
       <c r="F623" t="s">
@@ -18045,7 +18258,7 @@
       <c r="B624" t="s">
         <v>990</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C624" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="F624" t="s">
@@ -18059,7 +18272,7 @@
       <c r="B625" t="s">
         <v>991</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C625" s="1" t="s">
         <v>2308</v>
       </c>
       <c r="F625" t="s">
@@ -18073,7 +18286,7 @@
       <c r="B626" t="s">
         <v>992</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C626" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="F626" t="s">
@@ -18087,7 +18300,7 @@
       <c r="B627" t="s">
         <v>993</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C627" s="1" t="s">
         <v>2310</v>
       </c>
       <c r="F627" t="s">
@@ -18101,7 +18314,7 @@
       <c r="B628" t="s">
         <v>994</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C628" s="1" t="s">
         <v>2311</v>
       </c>
       <c r="F628" t="s">
@@ -18115,7 +18328,7 @@
       <c r="B629" t="s">
         <v>989</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C629" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="F629" t="s">
@@ -18129,8 +18342,8 @@
       <c r="B630" t="s">
         <v>1362</v>
       </c>
-      <c r="C630" t="s">
-        <v>2313</v>
+      <c r="C630" s="1" t="s">
+        <v>2990</v>
       </c>
       <c r="F630" t="s">
         <v>2313</v>
@@ -18143,8 +18356,8 @@
       <c r="B631" t="s">
         <v>1359</v>
       </c>
-      <c r="C631" t="s">
-        <v>2314</v>
+      <c r="C631" s="1" t="s">
+        <v>2991</v>
       </c>
       <c r="F631" t="s">
         <v>2314</v>
@@ -18157,8 +18370,8 @@
       <c r="B632" t="s">
         <v>995</v>
       </c>
-      <c r="C632" t="s">
-        <v>2315</v>
+      <c r="C632" s="1" t="s">
+        <v>2992</v>
       </c>
       <c r="F632" t="s">
         <v>2315</v>
@@ -18171,8 +18384,8 @@
       <c r="B633" t="s">
         <v>1628</v>
       </c>
-      <c r="C633" t="s">
-        <v>2316</v>
+      <c r="C633" s="1" t="s">
+        <v>2993</v>
       </c>
       <c r="F633" t="s">
         <v>2316</v>
@@ -18185,7 +18398,7 @@
       <c r="B634" t="s">
         <v>1629</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C634" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="F634" t="s">
@@ -18199,8 +18412,8 @@
       <c r="B635" t="s">
         <v>1360</v>
       </c>
-      <c r="C635" t="s">
-        <v>2318</v>
+      <c r="C635" s="1" t="s">
+        <v>2994</v>
       </c>
       <c r="F635" t="s">
         <v>2318</v>
@@ -18213,8 +18426,8 @@
       <c r="B636" t="s">
         <v>1361</v>
       </c>
-      <c r="C636" t="s">
-        <v>2319</v>
+      <c r="C636" s="1" t="s">
+        <v>2995</v>
       </c>
       <c r="F636" t="s">
         <v>2319</v>
@@ -18227,8 +18440,8 @@
       <c r="B637" t="s">
         <v>999</v>
       </c>
-      <c r="C637" t="s">
-        <v>2320</v>
+      <c r="C637" s="1" t="s">
+        <v>2996</v>
       </c>
       <c r="F637" t="s">
         <v>2320</v>
@@ -18241,8 +18454,8 @@
       <c r="B638" t="s">
         <v>1000</v>
       </c>
-      <c r="C638" t="s">
-        <v>2321</v>
+      <c r="C638" s="1" t="s">
+        <v>2997</v>
       </c>
       <c r="F638" t="s">
         <v>2321</v>
@@ -18255,8 +18468,8 @@
       <c r="B639" t="s">
         <v>1002</v>
       </c>
-      <c r="C639" t="s">
-        <v>2322</v>
+      <c r="C639" s="1" t="s">
+        <v>2998</v>
       </c>
       <c r="F639" t="s">
         <v>2322</v>
@@ -18269,8 +18482,8 @@
       <c r="B640" t="s">
         <v>1001</v>
       </c>
-      <c r="C640" t="s">
-        <v>2323</v>
+      <c r="C640" s="1" t="s">
+        <v>2999</v>
       </c>
       <c r="F640" t="s">
         <v>2323</v>
@@ -18283,7 +18496,7 @@
       <c r="B641" t="s">
         <v>1363</v>
       </c>
-      <c r="C641" t="s">
+      <c r="C641" s="1" t="s">
         <v>2324</v>
       </c>
       <c r="F641" t="s">
@@ -18297,8 +18510,8 @@
       <c r="B642" t="s">
         <v>996</v>
       </c>
-      <c r="C642" t="s">
-        <v>2325</v>
+      <c r="C642" s="1" t="s">
+        <v>3000</v>
       </c>
       <c r="F642" t="s">
         <v>2325</v>
@@ -18311,8 +18524,8 @@
       <c r="B643" t="s">
         <v>997</v>
       </c>
-      <c r="C643" t="s">
-        <v>2326</v>
+      <c r="C643" s="1" t="s">
+        <v>3001</v>
       </c>
       <c r="F643" t="s">
         <v>2326</v>
@@ -18325,8 +18538,8 @@
       <c r="B644" t="s">
         <v>1365</v>
       </c>
-      <c r="C644" t="s">
-        <v>2327</v>
+      <c r="C644" s="1" t="s">
+        <v>3002</v>
       </c>
       <c r="F644" t="s">
         <v>2327</v>
@@ -18339,8 +18552,8 @@
       <c r="B645" t="s">
         <v>998</v>
       </c>
-      <c r="C645" t="s">
-        <v>2328</v>
+      <c r="C645" s="1" t="s">
+        <v>3003</v>
       </c>
       <c r="F645" t="s">
         <v>2328</v>
@@ -18353,8 +18566,8 @@
       <c r="B646" t="s">
         <v>1364</v>
       </c>
-      <c r="C646" t="s">
-        <v>2329</v>
+      <c r="C646" s="1" t="s">
+        <v>3004</v>
       </c>
       <c r="F646" t="s">
         <v>2329</v>
@@ -18367,7 +18580,7 @@
       <c r="B647" t="s">
         <v>1366</v>
       </c>
-      <c r="C647" t="s">
+      <c r="C647" s="1" t="s">
         <v>2330</v>
       </c>
       <c r="F647" t="s">
@@ -18381,8 +18594,8 @@
       <c r="B648" t="s">
         <v>1367</v>
       </c>
-      <c r="C648" t="s">
-        <v>2331</v>
+      <c r="C648" s="1" t="s">
+        <v>3005</v>
       </c>
       <c r="F648" t="s">
         <v>2331</v>
@@ -18395,8 +18608,8 @@
       <c r="B649" t="s">
         <v>1355</v>
       </c>
-      <c r="C649" t="s">
-        <v>2332</v>
+      <c r="C649" s="1" t="s">
+        <v>3006</v>
       </c>
       <c r="F649" t="s">
         <v>2332</v>
@@ -18409,8 +18622,8 @@
       <c r="B650" t="s">
         <v>1356</v>
       </c>
-      <c r="C650" t="s">
-        <v>2333</v>
+      <c r="C650" s="1" t="s">
+        <v>3007</v>
       </c>
       <c r="F650" t="s">
         <v>2333</v>
@@ -18423,8 +18636,8 @@
       <c r="B651" t="s">
         <v>1211</v>
       </c>
-      <c r="C651" t="s">
-        <v>2334</v>
+      <c r="C651" s="1" t="s">
+        <v>3008</v>
       </c>
       <c r="F651" t="s">
         <v>2334</v>
@@ -18437,8 +18650,8 @@
       <c r="B652" t="s">
         <v>1212</v>
       </c>
-      <c r="C652" t="s">
-        <v>2335</v>
+      <c r="C652" s="1" t="s">
+        <v>3009</v>
       </c>
       <c r="F652" t="s">
         <v>2335</v>
@@ -18451,8 +18664,8 @@
       <c r="B653" t="s">
         <v>1213</v>
       </c>
-      <c r="C653" t="s">
-        <v>2336</v>
+      <c r="C653" s="1" t="s">
+        <v>3010</v>
       </c>
       <c r="F653" t="s">
         <v>2336</v>
@@ -18465,8 +18678,8 @@
       <c r="B654" t="s">
         <v>1214</v>
       </c>
-      <c r="C654" t="s">
-        <v>2337</v>
+      <c r="C654" s="1" t="s">
+        <v>3011</v>
       </c>
       <c r="F654" t="s">
         <v>2337</v>
@@ -18479,8 +18692,8 @@
       <c r="B655" t="s">
         <v>1207</v>
       </c>
-      <c r="C655" t="s">
-        <v>2338</v>
+      <c r="C655" s="1" t="s">
+        <v>3012</v>
       </c>
       <c r="F655" t="s">
         <v>2338</v>
@@ -18493,8 +18706,8 @@
       <c r="B656" t="s">
         <v>1208</v>
       </c>
-      <c r="C656" t="s">
-        <v>2339</v>
+      <c r="C656" s="1" t="s">
+        <v>3013</v>
       </c>
       <c r="F656" t="s">
         <v>2339</v>
@@ -18507,8 +18720,8 @@
       <c r="B657" t="s">
         <v>1210</v>
       </c>
-      <c r="C657" t="s">
-        <v>2340</v>
+      <c r="C657" s="1" t="s">
+        <v>3014</v>
       </c>
       <c r="F657" t="s">
         <v>2340</v>
@@ -18521,8 +18734,8 @@
       <c r="B658" t="s">
         <v>1209</v>
       </c>
-      <c r="C658" t="s">
-        <v>2341</v>
+      <c r="C658" s="1" t="s">
+        <v>3015</v>
       </c>
       <c r="F658" t="s">
         <v>2341</v>
@@ -18535,8 +18748,8 @@
       <c r="B659" t="s">
         <v>1205</v>
       </c>
-      <c r="C659" t="s">
-        <v>2342</v>
+      <c r="C659" s="1" t="s">
+        <v>3016</v>
       </c>
       <c r="F659" t="s">
         <v>2342</v>
@@ -18549,8 +18762,8 @@
       <c r="B660" t="s">
         <v>1204</v>
       </c>
-      <c r="C660" t="s">
-        <v>2343</v>
+      <c r="C660" s="1" t="s">
+        <v>3017</v>
       </c>
       <c r="F660" t="s">
         <v>2343</v>
@@ -18563,8 +18776,8 @@
       <c r="B661" t="s">
         <v>1206</v>
       </c>
-      <c r="C661" t="s">
-        <v>2344</v>
+      <c r="C661" s="1" t="s">
+        <v>3018</v>
       </c>
       <c r="F661" t="s">
         <v>2344</v>
@@ -18577,8 +18790,8 @@
       <c r="B662" t="s">
         <v>912</v>
       </c>
-      <c r="C662" t="s">
-        <v>2345</v>
+      <c r="C662" s="1" t="s">
+        <v>3019</v>
       </c>
       <c r="F662" t="s">
         <v>2345</v>
@@ -18591,8 +18804,8 @@
       <c r="B663" t="s">
         <v>913</v>
       </c>
-      <c r="C663" t="s">
-        <v>2346</v>
+      <c r="C663" s="1" t="s">
+        <v>3020</v>
       </c>
       <c r="F663" t="s">
         <v>2346</v>
@@ -18605,8 +18818,8 @@
       <c r="B664" t="s">
         <v>1215</v>
       </c>
-      <c r="C664" t="s">
-        <v>2347</v>
+      <c r="C664" s="1" t="s">
+        <v>3021</v>
       </c>
       <c r="F664" t="s">
         <v>2347</v>
@@ -18619,7 +18832,7 @@
       <c r="B665" t="s">
         <v>1382</v>
       </c>
-      <c r="C665" t="s">
+      <c r="C665" s="1" t="s">
         <v>2348</v>
       </c>
       <c r="F665" t="s">
@@ -18633,7 +18846,7 @@
       <c r="B666" t="s">
         <v>1383</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C666" s="1" t="s">
         <v>2349</v>
       </c>
       <c r="F666" t="s">
@@ -18647,8 +18860,8 @@
       <c r="B667" t="s">
         <v>1633</v>
       </c>
-      <c r="C667" t="s">
-        <v>2350</v>
+      <c r="C667" s="1" t="s">
+        <v>3022</v>
       </c>
       <c r="F667" t="s">
         <v>2350</v>
@@ -18661,8 +18874,8 @@
       <c r="B668" t="s">
         <v>1634</v>
       </c>
-      <c r="C668" t="s">
-        <v>2351</v>
+      <c r="C668" s="1" t="s">
+        <v>3023</v>
       </c>
       <c r="F668" t="s">
         <v>2351</v>
@@ -18675,8 +18888,8 @@
       <c r="B669" t="s">
         <v>1635</v>
       </c>
-      <c r="C669" t="s">
-        <v>2352</v>
+      <c r="C669" s="1" t="s">
+        <v>3024</v>
       </c>
       <c r="F669" t="s">
         <v>2352</v>
@@ -18689,8 +18902,8 @@
       <c r="B670" t="s">
         <v>1632</v>
       </c>
-      <c r="C670" t="s">
-        <v>2353</v>
+      <c r="C670" s="1" t="s">
+        <v>3025</v>
       </c>
       <c r="F670" t="s">
         <v>2353</v>
@@ -18703,8 +18916,8 @@
       <c r="B671" t="s">
         <v>1631</v>
       </c>
-      <c r="C671" t="s">
-        <v>2354</v>
+      <c r="C671" s="1" t="s">
+        <v>3026</v>
       </c>
       <c r="F671" t="s">
         <v>2354</v>
@@ -18717,8 +18930,8 @@
       <c r="B672" t="s">
         <v>1642</v>
       </c>
-      <c r="C672" t="s">
-        <v>2355</v>
+      <c r="C672" s="1" t="s">
+        <v>3027</v>
       </c>
       <c r="F672" t="s">
         <v>2355</v>
@@ -18731,8 +18944,8 @@
       <c r="B673" t="s">
         <v>1636</v>
       </c>
-      <c r="C673" t="s">
-        <v>2356</v>
+      <c r="C673" s="1" t="s">
+        <v>3028</v>
       </c>
       <c r="F673" t="s">
         <v>2356</v>
@@ -18745,8 +18958,8 @@
       <c r="B674" t="s">
         <v>1640</v>
       </c>
-      <c r="C674" t="s">
-        <v>2357</v>
+      <c r="C674" s="1" t="s">
+        <v>3029</v>
       </c>
       <c r="F674" t="s">
         <v>2357</v>
@@ -18759,8 +18972,8 @@
       <c r="B675" t="s">
         <v>1637</v>
       </c>
-      <c r="C675" t="s">
-        <v>2358</v>
+      <c r="C675" s="1" t="s">
+        <v>3030</v>
       </c>
       <c r="F675" t="s">
         <v>2358</v>
@@ -18773,8 +18986,8 @@
       <c r="B676" t="s">
         <v>1638</v>
       </c>
-      <c r="C676" t="s">
-        <v>2359</v>
+      <c r="C676" s="1" t="s">
+        <v>3031</v>
       </c>
       <c r="F676" t="s">
         <v>2359</v>
@@ -18787,8 +19000,8 @@
       <c r="B677" t="s">
         <v>1639</v>
       </c>
-      <c r="C677" t="s">
-        <v>2360</v>
+      <c r="C677" s="1" t="s">
+        <v>3032</v>
       </c>
       <c r="F677" t="s">
         <v>2360</v>
@@ -18801,7 +19014,7 @@
       <c r="B678" t="s">
         <v>1015</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C678" s="1" t="s">
         <v>2361</v>
       </c>
       <c r="F678" t="s">
@@ -18815,7 +19028,7 @@
       <c r="B679" t="s">
         <v>1014</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C679" s="1" t="s">
         <v>2362</v>
       </c>
       <c r="F679" t="s">
@@ -18829,8 +19042,8 @@
       <c r="B680" t="s">
         <v>1641</v>
       </c>
-      <c r="C680" t="s">
-        <v>2363</v>
+      <c r="C680" s="1" t="s">
+        <v>3033</v>
       </c>
       <c r="F680" t="s">
         <v>2363</v>
@@ -18843,7 +19056,7 @@
       <c r="B681" t="s">
         <v>1013</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C681" s="1" t="s">
         <v>2364</v>
       </c>
       <c r="F681" t="s">

--- a/arhiv/New folder/recnik_za_o.xlsx
+++ b/arhiv/New folder/recnik_za_o.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiko\PycharmProjects\novpisane\arhiv\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B29631-EA12-4814-9256-A157355A5D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A6CDA-1FC7-49F7-8877-CACE15EE5A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="3034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="3161">
   <si>
     <t>abhorrence</t>
   </si>
@@ -9122,6 +9122,387 @@
   </si>
   <si>
     <t>RÝʃɒT</t>
+  </si>
+  <si>
+    <t>RÏSɒTÖ</t>
+  </si>
+  <si>
+    <t>RɒS©</t>
+  </si>
+  <si>
+    <t>RɒSIÑ</t>
+  </si>
+  <si>
+    <t>Rɒθ©</t>
+  </si>
+  <si>
+    <t>RɒθS</t>
+  </si>
+  <si>
+    <t>RÚDɒLF/RÚDɒF</t>
+  </si>
+  <si>
+    <t>RʌNɒF</t>
+  </si>
+  <si>
+    <t>SɒNKÚLɒT</t>
+  </si>
+  <si>
+    <t>SɛRəTɒV/SɛRəTɒF</t>
+  </si>
+  <si>
+    <t>S©ɒÑ</t>
+  </si>
+  <si>
+    <t>S©ɒÑZ</t>
+  </si>
+  <si>
+    <t>SKɒF</t>
+  </si>
+  <si>
+    <t>SKɒFђ</t>
+  </si>
+  <si>
+    <t>SKɒFS</t>
+  </si>
+  <si>
+    <t>SNɒT</t>
+  </si>
+  <si>
+    <t>SNɒTFÉS</t>
+  </si>
+  <si>
+    <t>SNɒTFÉSђ</t>
+  </si>
+  <si>
+    <t>SNɒTÏ</t>
+  </si>
+  <si>
+    <t>SɒDəM</t>
+  </si>
+  <si>
+    <t>SɒFIT</t>
+  </si>
+  <si>
+    <t>SɒFTBɔL/SɒFBɔL</t>
+  </si>
+  <si>
+    <t>SɒFTBɔLZ/SɒFBɔLZ</t>
+  </si>
+  <si>
+    <t>SɒFəNћ</t>
+  </si>
+  <si>
+    <t>SɒFəN©</t>
+  </si>
+  <si>
+    <t>SɒFəNIÑ/SɒFNIÑ</t>
+  </si>
+  <si>
+    <t>SɒFəNZ</t>
+  </si>
+  <si>
+    <t>SɒFTəST</t>
+  </si>
+  <si>
+    <t>SɒFTLÝ/SɒFLÝ</t>
+  </si>
+  <si>
+    <t>SɒFTNəS/SɒFNəS</t>
+  </si>
+  <si>
+    <t>SɒFTSPÖKəN/SɒFSPÖKəN</t>
+  </si>
+  <si>
+    <t>SɒFTWɛR/SɒFWɛR</t>
+  </si>
+  <si>
+    <t>SɒFTWɛRZ/SɒFWɛRZ</t>
+  </si>
+  <si>
+    <t>SɒFTWUD</t>
+  </si>
+  <si>
+    <t>SɒLəMLÝ</t>
+  </si>
+  <si>
+    <t>SɒLSTIS</t>
+  </si>
+  <si>
+    <t>SɒLSTISIS</t>
+  </si>
+  <si>
+    <t>SɒLVəNSÝ</t>
+  </si>
+  <si>
+    <t>SɒLVəNTS</t>
+  </si>
+  <si>
+    <t>SɒÑ</t>
+  </si>
+  <si>
+    <t>SɒÑZ</t>
+  </si>
+  <si>
+    <t>SɒÑB®D</t>
+  </si>
+  <si>
+    <t>SɒÑB®DZ</t>
+  </si>
+  <si>
+    <t>SɒÑ©</t>
+  </si>
+  <si>
+    <t>SɒÑRÍT©</t>
+  </si>
+  <si>
+    <t>SɒÑRÍT©Z</t>
+  </si>
+  <si>
+    <t>SɒÑRÍTIÑ</t>
+  </si>
+  <si>
+    <t>SɒFMɒR</t>
+  </si>
+  <si>
+    <t>SɒFMɒRZ</t>
+  </si>
+  <si>
+    <t>SɒT</t>
+  </si>
+  <si>
+    <t>SPÆZMɒDIK</t>
+  </si>
+  <si>
+    <t>SPÆZMɒDIKLÝ</t>
+  </si>
+  <si>
+    <t>STÆNDɒF</t>
+  </si>
+  <si>
+    <t>STÆNDɒFS</t>
+  </si>
+  <si>
+    <t>STRɛPTəKɒKəS</t>
+  </si>
+  <si>
+    <t>STRɒÑ</t>
+  </si>
+  <si>
+    <t>STRɒÑG©</t>
+  </si>
+  <si>
+    <t>STRɒÑGəST</t>
+  </si>
+  <si>
+    <t>STRɒÑXÖLD</t>
+  </si>
+  <si>
+    <t>STRɒÑXÖLDZ</t>
+  </si>
+  <si>
+    <t>STRɒÑLÝ</t>
+  </si>
+  <si>
+    <t>SWɒMPђ</t>
+  </si>
+  <si>
+    <t>SWɒN©</t>
+  </si>
+  <si>
+    <t>SINəGɒG</t>
+  </si>
+  <si>
+    <t>SINəGɒGZ</t>
+  </si>
+  <si>
+    <t>TÉBəLKLɒθ</t>
+  </si>
+  <si>
+    <t>TÉBəLKLɒθS</t>
+  </si>
+  <si>
+    <t>TÉKɒF</t>
+  </si>
+  <si>
+    <t>TÉKɒFS</t>
+  </si>
+  <si>
+    <t>TÏLÝəLɒJIKəL</t>
+  </si>
+  <si>
+    <t>TÚTɒNIK</t>
+  </si>
+  <si>
+    <t>ÐɛRɒN</t>
+  </si>
+  <si>
+    <t>θɒÑ</t>
+  </si>
+  <si>
+    <t>θÁZəNDYIRZLɒÑ</t>
+  </si>
+  <si>
+    <t>θRɒÑ</t>
+  </si>
+  <si>
+    <t>θRɒÑћ</t>
+  </si>
+  <si>
+    <t>θRɒÑZ</t>
+  </si>
+  <si>
+    <t>TɒF</t>
+  </si>
+  <si>
+    <t>TɒL©ÉTS</t>
+  </si>
+  <si>
+    <t>TɒÑ</t>
+  </si>
+  <si>
+    <t>TɒPDÁN</t>
+  </si>
+  <si>
+    <t>TɒPSÏKRIT</t>
+  </si>
+  <si>
+    <t>TəPɒLəJÝ</t>
+  </si>
+  <si>
+    <t>TɒS</t>
+  </si>
+  <si>
+    <t>TɒSђ</t>
+  </si>
+  <si>
+    <t>TɒSIZ</t>
+  </si>
+  <si>
+    <t>TɒSIÑ</t>
+  </si>
+  <si>
+    <t>TRÉDɒF</t>
+  </si>
+  <si>
+    <t>TRÉDɒFS</t>
+  </si>
+  <si>
+    <t>TRÆVəLɒG</t>
+  </si>
+  <si>
+    <t>TRÏTɒP</t>
+  </si>
+  <si>
+    <t>TRÏTɒPS</t>
+  </si>
+  <si>
+    <t>ʌNKɒNTRəDIKTʔћ</t>
+  </si>
+  <si>
+    <t>ʌND©DɒG</t>
+  </si>
+  <si>
+    <t>ʌND©DɒGZ</t>
+  </si>
+  <si>
+    <t>ʌND©GɒN</t>
+  </si>
+  <si>
+    <t>əNGɒDLÝ</t>
+  </si>
+  <si>
+    <t>əNINVɒLVћ</t>
+  </si>
+  <si>
+    <t>əNWɒNTʔћ</t>
+  </si>
+  <si>
+    <t>VɒLəNTIRIÑ</t>
+  </si>
+  <si>
+    <t>VɒLəNTIRIZəM</t>
+  </si>
+  <si>
+    <t>VUTɒN</t>
+  </si>
+  <si>
+    <t>WɒLəT</t>
+  </si>
+  <si>
+    <t>WɒLəTS</t>
+  </si>
+  <si>
+    <t>WɒLəPIÑ</t>
+  </si>
+  <si>
+    <t>WɒNTʔћ</t>
+  </si>
+  <si>
+    <t>WɔRLɒK</t>
+  </si>
+  <si>
+    <t>WɔRLɒKS</t>
+  </si>
+  <si>
+    <t>WɒʃKLɒθ</t>
+  </si>
+  <si>
+    <t>WɒÇDɒG</t>
+  </si>
+  <si>
+    <t>WɒÇDɒGZ</t>
+  </si>
+  <si>
+    <t>WɔT©BɒTəL</t>
+  </si>
+  <si>
+    <t>WɔT©BɒTəLZ</t>
+  </si>
+  <si>
+    <t>WÖBIGɒN</t>
+  </si>
+  <si>
+    <t>WULFDɒG</t>
+  </si>
+  <si>
+    <t>RÍTɒF</t>
+  </si>
+  <si>
+    <t>RÍTɒFS</t>
+  </si>
+  <si>
+    <t>RɒÑDÚ©</t>
+  </si>
+  <si>
+    <t>RɒÑDÚ©Z</t>
+  </si>
+  <si>
+    <t>RɒÑDÚIÑ</t>
+  </si>
+  <si>
+    <t>RɒÑDÚIÑZ</t>
+  </si>
+  <si>
+    <t>RɒÑћ</t>
+  </si>
+  <si>
+    <t>RɒÑFəL</t>
+  </si>
+  <si>
+    <t>RɒÑFəLÝ</t>
+  </si>
+  <si>
+    <t>RɒÑXɛDʔћ</t>
+  </si>
+  <si>
+    <t>RɒÑLÝ</t>
+  </si>
+  <si>
+    <t>RɒÑZ</t>
+  </si>
+  <si>
+    <t>YIRLɒÑ</t>
   </si>
 </sst>
 </file>
@@ -9531,8 +9912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="C682" sqref="C682"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="C712" sqref="C712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19099,7 +19480,7 @@
         <v>1008</v>
       </c>
       <c r="C684" t="s">
-        <v>2367</v>
+        <v>3034</v>
       </c>
       <c r="F684" t="s">
         <v>2367</v>
@@ -19127,7 +19508,7 @@
         <v>1385</v>
       </c>
       <c r="C686" t="s">
-        <v>2369</v>
+        <v>3035</v>
       </c>
       <c r="F686" t="s">
         <v>2369</v>
@@ -19141,7 +19522,7 @@
         <v>1386</v>
       </c>
       <c r="C687" t="s">
-        <v>2370</v>
+        <v>3036</v>
       </c>
       <c r="F687" t="s">
         <v>2370</v>
@@ -19155,7 +19536,7 @@
         <v>1395</v>
       </c>
       <c r="C688" t="s">
-        <v>2371</v>
+        <v>3037</v>
       </c>
       <c r="F688" t="s">
         <v>2371</v>
@@ -19169,7 +19550,7 @@
         <v>1012</v>
       </c>
       <c r="C689" t="s">
-        <v>2372</v>
+        <v>3038</v>
       </c>
       <c r="F689" t="s">
         <v>2372</v>
@@ -19183,7 +19564,7 @@
         <v>1384</v>
       </c>
       <c r="C690" t="s">
-        <v>2373</v>
+        <v>3039</v>
       </c>
       <c r="F690" t="s">
         <v>2373</v>
@@ -19197,7 +19578,7 @@
         <v>1396</v>
       </c>
       <c r="C691" t="s">
-        <v>2374</v>
+        <v>3040</v>
       </c>
       <c r="F691" t="s">
         <v>2374</v>
@@ -19211,7 +19592,7 @@
         <v>1035</v>
       </c>
       <c r="C692" t="s">
-        <v>2375</v>
+        <v>3041</v>
       </c>
       <c r="F692" t="s">
         <v>2375</v>
@@ -19225,7 +19606,7 @@
         <v>1041</v>
       </c>
       <c r="C693" t="s">
-        <v>2376</v>
+        <v>3042</v>
       </c>
       <c r="F693" t="s">
         <v>2376</v>
@@ -19239,7 +19620,7 @@
         <v>1044</v>
       </c>
       <c r="C694" t="s">
-        <v>2377</v>
+        <v>3043</v>
       </c>
       <c r="F694" t="s">
         <v>2377</v>
@@ -19253,7 +19634,7 @@
         <v>1045</v>
       </c>
       <c r="C695" t="s">
-        <v>2378</v>
+        <v>3044</v>
       </c>
       <c r="F695" t="s">
         <v>2378</v>
@@ -19295,7 +19676,7 @@
         <v>1019</v>
       </c>
       <c r="C698" t="s">
-        <v>2381</v>
+        <v>3045</v>
       </c>
       <c r="F698" t="s">
         <v>2381</v>
@@ -19309,7 +19690,7 @@
         <v>1021</v>
       </c>
       <c r="C699" t="s">
-        <v>2382</v>
+        <v>3046</v>
       </c>
       <c r="F699" t="s">
         <v>2382</v>
@@ -19323,7 +19704,7 @@
         <v>1020</v>
       </c>
       <c r="C700" t="s">
-        <v>2383</v>
+        <v>3047</v>
       </c>
       <c r="F700" t="s">
         <v>2383</v>
@@ -19365,7 +19746,7 @@
         <v>1022</v>
       </c>
       <c r="C703" t="s">
-        <v>2386</v>
+        <v>3048</v>
       </c>
       <c r="F703" t="s">
         <v>2386</v>
@@ -19379,7 +19760,7 @@
         <v>1023</v>
       </c>
       <c r="C704" t="s">
-        <v>2387</v>
+        <v>3049</v>
       </c>
       <c r="F704" t="s">
         <v>2387</v>
@@ -19393,7 +19774,7 @@
         <v>1024</v>
       </c>
       <c r="C705" t="s">
-        <v>2388</v>
+        <v>3050</v>
       </c>
       <c r="F705" t="s">
         <v>2388</v>
@@ -19407,7 +19788,7 @@
         <v>1400</v>
       </c>
       <c r="C706" t="s">
-        <v>2389</v>
+        <v>3051</v>
       </c>
       <c r="F706" t="s">
         <v>2389</v>
@@ -19421,7 +19802,7 @@
         <v>1410</v>
       </c>
       <c r="C707" t="s">
-        <v>2390</v>
+        <v>3052</v>
       </c>
       <c r="F707" t="s">
         <v>2390</v>
@@ -19435,7 +19816,7 @@
         <v>1428</v>
       </c>
       <c r="C708" t="s">
-        <v>2391</v>
+        <v>3053</v>
       </c>
       <c r="F708" t="s">
         <v>2391</v>
@@ -19463,7 +19844,7 @@
         <v>1423</v>
       </c>
       <c r="C710" t="s">
-        <v>2393</v>
+        <v>3054</v>
       </c>
       <c r="F710" t="s">
         <v>2393</v>
@@ -19477,7 +19858,7 @@
         <v>1424</v>
       </c>
       <c r="C711" t="s">
-        <v>2394</v>
+        <v>3055</v>
       </c>
       <c r="F711" t="s">
         <v>2394</v>
@@ -19505,7 +19886,7 @@
         <v>1412</v>
       </c>
       <c r="C713" t="s">
-        <v>2396</v>
+        <v>3056</v>
       </c>
       <c r="F713" t="s">
         <v>2396</v>
@@ -19519,7 +19900,7 @@
         <v>1414</v>
       </c>
       <c r="C714" t="s">
-        <v>2397</v>
+        <v>3057</v>
       </c>
       <c r="F714" t="s">
         <v>2397</v>
@@ -19533,7 +19914,7 @@
         <v>1415</v>
       </c>
       <c r="C715" t="s">
-        <v>2398</v>
+        <v>3058</v>
       </c>
       <c r="F715" t="s">
         <v>2398</v>
@@ -19547,7 +19928,7 @@
         <v>1413</v>
       </c>
       <c r="C716" t="s">
-        <v>2399</v>
+        <v>3059</v>
       </c>
       <c r="F716" t="s">
         <v>2399</v>
@@ -19575,7 +19956,7 @@
         <v>1422</v>
       </c>
       <c r="C718" t="s">
-        <v>2401</v>
+        <v>3060</v>
       </c>
       <c r="F718" t="s">
         <v>2401</v>
@@ -19589,7 +19970,7 @@
         <v>1416</v>
       </c>
       <c r="C719" t="s">
-        <v>2402</v>
+        <v>3061</v>
       </c>
       <c r="F719" t="s">
         <v>2402</v>
@@ -19603,7 +19984,7 @@
         <v>1417</v>
       </c>
       <c r="C720" t="s">
-        <v>2403</v>
+        <v>3062</v>
       </c>
       <c r="F720" t="s">
         <v>2403</v>
@@ -19617,7 +19998,7 @@
         <v>1425</v>
       </c>
       <c r="C721" t="s">
-        <v>2404</v>
+        <v>3063</v>
       </c>
       <c r="F721" t="s">
         <v>2404</v>
@@ -19631,7 +20012,7 @@
         <v>1418</v>
       </c>
       <c r="C722" t="s">
-        <v>2405</v>
+        <v>3064</v>
       </c>
       <c r="F722" t="s">
         <v>2405</v>
@@ -19645,7 +20026,7 @@
         <v>1419</v>
       </c>
       <c r="C723" t="s">
-        <v>2406</v>
+        <v>3065</v>
       </c>
       <c r="F723" t="s">
         <v>2406</v>
@@ -19659,7 +20040,7 @@
         <v>1420</v>
       </c>
       <c r="C724" t="s">
-        <v>2407</v>
+        <v>3066</v>
       </c>
       <c r="F724" t="s">
         <v>2407</v>
@@ -19673,7 +20054,7 @@
         <v>1433</v>
       </c>
       <c r="C725" t="s">
-        <v>2408</v>
+        <v>3067</v>
       </c>
       <c r="F725" t="s">
         <v>2408</v>
@@ -19687,7 +20068,7 @@
         <v>1429</v>
       </c>
       <c r="C726" t="s">
-        <v>2409</v>
+        <v>3068</v>
       </c>
       <c r="F726" t="s">
         <v>2409</v>
@@ -19701,7 +20082,7 @@
         <v>1430</v>
       </c>
       <c r="C727" t="s">
-        <v>2410</v>
+        <v>3069</v>
       </c>
       <c r="F727" t="s">
         <v>2410</v>
@@ -19715,7 +20096,7 @@
         <v>1431</v>
       </c>
       <c r="C728" t="s">
-        <v>2411</v>
+        <v>3070</v>
       </c>
       <c r="F728" t="s">
         <v>2411</v>
@@ -19729,7 +20110,7 @@
         <v>1432</v>
       </c>
       <c r="C729" t="s">
-        <v>2412</v>
+        <v>3071</v>
       </c>
       <c r="F729" t="s">
         <v>2412</v>
@@ -19743,7 +20124,7 @@
         <v>1038</v>
       </c>
       <c r="C730" t="s">
-        <v>2413</v>
+        <v>3072</v>
       </c>
       <c r="F730" t="s">
         <v>2413</v>
@@ -19757,7 +20138,7 @@
         <v>1039</v>
       </c>
       <c r="C731" t="s">
-        <v>2414</v>
+        <v>3073</v>
       </c>
       <c r="F731" t="s">
         <v>2414</v>
@@ -19771,7 +20152,7 @@
         <v>1436</v>
       </c>
       <c r="C732" t="s">
-        <v>2415</v>
+        <v>3074</v>
       </c>
       <c r="F732" t="s">
         <v>2415</v>
@@ -19785,7 +20166,7 @@
         <v>1437</v>
       </c>
       <c r="C733" t="s">
-        <v>2416</v>
+        <v>3075</v>
       </c>
       <c r="F733" t="s">
         <v>2416</v>
@@ -19799,7 +20180,7 @@
         <v>1438</v>
       </c>
       <c r="C734" t="s">
-        <v>2417</v>
+        <v>3076</v>
       </c>
       <c r="F734" t="s">
         <v>2417</v>
@@ -19813,7 +20194,7 @@
         <v>1439</v>
       </c>
       <c r="C735" t="s">
-        <v>2418</v>
+        <v>3077</v>
       </c>
       <c r="F735" t="s">
         <v>2418</v>
@@ -19827,7 +20208,7 @@
         <v>1440</v>
       </c>
       <c r="C736" t="s">
-        <v>2419</v>
+        <v>3078</v>
       </c>
       <c r="F736" t="s">
         <v>2419</v>
@@ -19841,7 +20222,7 @@
         <v>1441</v>
       </c>
       <c r="C737" t="s">
-        <v>2420</v>
+        <v>3079</v>
       </c>
       <c r="F737" t="s">
         <v>2420</v>
@@ -19855,7 +20236,7 @@
         <v>1426</v>
       </c>
       <c r="C738" t="s">
-        <v>2421</v>
+        <v>3080</v>
       </c>
       <c r="F738" t="s">
         <v>2421</v>
@@ -19869,7 +20250,7 @@
         <v>1427</v>
       </c>
       <c r="C739" t="s">
-        <v>2422</v>
+        <v>3081</v>
       </c>
       <c r="F739" t="s">
         <v>2422</v>
@@ -19925,7 +20306,7 @@
         <v>1037</v>
       </c>
       <c r="C743" t="s">
-        <v>2426</v>
+        <v>3082</v>
       </c>
       <c r="F743" t="s">
         <v>2426</v>
@@ -19939,7 +20320,7 @@
         <v>1025</v>
       </c>
       <c r="C744" t="s">
-        <v>2427</v>
+        <v>3083</v>
       </c>
       <c r="F744" t="s">
         <v>2427</v>
@@ -19953,7 +20334,7 @@
         <v>1026</v>
       </c>
       <c r="C745" t="s">
-        <v>2428</v>
+        <v>3084</v>
       </c>
       <c r="F745" t="s">
         <v>2428</v>
@@ -19981,7 +20362,7 @@
         <v>1407</v>
       </c>
       <c r="C747" t="s">
-        <v>2430</v>
+        <v>3085</v>
       </c>
       <c r="F747" t="s">
         <v>2430</v>
@@ -19995,7 +20376,7 @@
         <v>1645</v>
       </c>
       <c r="C748" t="s">
-        <v>2431</v>
+        <v>3086</v>
       </c>
       <c r="F748" t="s">
         <v>2431</v>
@@ -20009,7 +20390,7 @@
         <v>1028</v>
       </c>
       <c r="C749" t="s">
-        <v>2432</v>
+        <v>3087</v>
       </c>
       <c r="F749" t="s">
         <v>2432</v>
@@ -20023,7 +20404,7 @@
         <v>1401</v>
       </c>
       <c r="C750" t="s">
-        <v>2433</v>
+        <v>3088</v>
       </c>
       <c r="F750" t="s">
         <v>2433</v>
@@ -20037,7 +20418,7 @@
         <v>1402</v>
       </c>
       <c r="C751" t="s">
-        <v>2434</v>
+        <v>3089</v>
       </c>
       <c r="F751" t="s">
         <v>2434</v>
@@ -20051,7 +20432,7 @@
         <v>1403</v>
       </c>
       <c r="C752" t="s">
-        <v>2435</v>
+        <v>3090</v>
       </c>
       <c r="F752" t="s">
         <v>2435</v>
@@ -20065,7 +20446,7 @@
         <v>1404</v>
       </c>
       <c r="C753" t="s">
-        <v>2436</v>
+        <v>3091</v>
       </c>
       <c r="F753" t="s">
         <v>2436</v>
@@ -20079,7 +20460,7 @@
         <v>1405</v>
       </c>
       <c r="C754" t="s">
-        <v>2437</v>
+        <v>3092</v>
       </c>
       <c r="F754" t="s">
         <v>2437</v>
@@ -20093,7 +20474,7 @@
         <v>1027</v>
       </c>
       <c r="C755" t="s">
-        <v>2438</v>
+        <v>3093</v>
       </c>
       <c r="F755" t="s">
         <v>2438</v>
@@ -20163,7 +20544,7 @@
         <v>1031</v>
       </c>
       <c r="C760" t="s">
-        <v>2443</v>
+        <v>3094</v>
       </c>
       <c r="F760" t="s">
         <v>2443</v>
@@ -20205,7 +20586,7 @@
         <v>1409</v>
       </c>
       <c r="C763" t="s">
-        <v>2446</v>
+        <v>3095</v>
       </c>
       <c r="F763" t="s">
         <v>2446</v>
@@ -20247,7 +20628,7 @@
         <v>1442</v>
       </c>
       <c r="C766" t="s">
-        <v>2449</v>
+        <v>3096</v>
       </c>
       <c r="F766" t="s">
         <v>2449</v>
@@ -20261,7 +20642,7 @@
         <v>1443</v>
       </c>
       <c r="C767" t="s">
-        <v>2450</v>
+        <v>3097</v>
       </c>
       <c r="F767" t="s">
         <v>2450</v>
@@ -20275,7 +20656,7 @@
         <v>1444</v>
       </c>
       <c r="C768" t="s">
-        <v>2451</v>
+        <v>3098</v>
       </c>
       <c r="F768" t="s">
         <v>2451</v>
@@ -20289,7 +20670,7 @@
         <v>1445</v>
       </c>
       <c r="C769" t="s">
-        <v>2452</v>
+        <v>3099</v>
       </c>
       <c r="F769" t="s">
         <v>2452</v>
@@ -20303,7 +20684,7 @@
         <v>1446</v>
       </c>
       <c r="C770" t="s">
-        <v>2453</v>
+        <v>3100</v>
       </c>
       <c r="F770" t="s">
         <v>2453</v>
@@ -20317,7 +20698,7 @@
         <v>1447</v>
       </c>
       <c r="C771" t="s">
-        <v>2454</v>
+        <v>3101</v>
       </c>
       <c r="F771" t="s">
         <v>2454</v>
@@ -20331,7 +20712,7 @@
         <v>1063</v>
       </c>
       <c r="C772" t="s">
-        <v>2455</v>
+        <v>3102</v>
       </c>
       <c r="F772" t="s">
         <v>2455</v>
@@ -20345,7 +20726,7 @@
         <v>1046</v>
       </c>
       <c r="C773" t="s">
-        <v>2456</v>
+        <v>3103</v>
       </c>
       <c r="F773" t="s">
         <v>2456</v>
@@ -20359,7 +20740,7 @@
         <v>1079</v>
       </c>
       <c r="C774" t="s">
-        <v>2457</v>
+        <v>3104</v>
       </c>
       <c r="F774" t="s">
         <v>2457</v>
@@ -20373,7 +20754,7 @@
         <v>1684</v>
       </c>
       <c r="C775" t="s">
-        <v>2458</v>
+        <v>3105</v>
       </c>
       <c r="F775" t="s">
         <v>2458</v>
@@ -20387,7 +20768,7 @@
         <v>1589</v>
       </c>
       <c r="C776" t="s">
-        <v>2459</v>
+        <v>3106</v>
       </c>
       <c r="F776" t="s">
         <v>2459</v>
@@ -20401,7 +20782,7 @@
         <v>1681</v>
       </c>
       <c r="C777" t="s">
-        <v>2460</v>
+        <v>3107</v>
       </c>
       <c r="F777" t="s">
         <v>2460</v>
@@ -20415,7 +20796,7 @@
         <v>1682</v>
       </c>
       <c r="C778" t="s">
-        <v>2461</v>
+        <v>3108</v>
       </c>
       <c r="F778" t="s">
         <v>2461</v>
@@ -20429,7 +20810,7 @@
         <v>1683</v>
       </c>
       <c r="C779" t="s">
-        <v>2462</v>
+        <v>3109</v>
       </c>
       <c r="F779" t="s">
         <v>2462</v>
@@ -20443,7 +20824,7 @@
         <v>1051</v>
       </c>
       <c r="C780" t="s">
-        <v>2463</v>
+        <v>3110</v>
       </c>
       <c r="F780" t="s">
         <v>2463</v>
@@ -20457,7 +20838,7 @@
         <v>1451</v>
       </c>
       <c r="C781" t="s">
-        <v>2464</v>
+        <v>3111</v>
       </c>
       <c r="F781" t="s">
         <v>2464</v>
@@ -20499,7 +20880,7 @@
         <v>1057</v>
       </c>
       <c r="C784" t="s">
-        <v>2467</v>
+        <v>3112</v>
       </c>
       <c r="F784" t="s">
         <v>2467</v>
@@ -20541,7 +20922,7 @@
         <v>1053</v>
       </c>
       <c r="C787" t="s">
-        <v>2470</v>
+        <v>3113</v>
       </c>
       <c r="F787" t="s">
         <v>2470</v>
@@ -20555,7 +20936,7 @@
         <v>1054</v>
       </c>
       <c r="C788" t="s">
-        <v>2471</v>
+        <v>3114</v>
       </c>
       <c r="F788" t="s">
         <v>2471</v>
@@ -20569,7 +20950,7 @@
         <v>1060</v>
       </c>
       <c r="C789" t="s">
-        <v>2472</v>
+        <v>3115</v>
       </c>
       <c r="F789" t="s">
         <v>2472</v>
@@ -20667,7 +21048,7 @@
         <v>1055</v>
       </c>
       <c r="C796" t="s">
-        <v>2479</v>
+        <v>3116</v>
       </c>
       <c r="F796" t="s">
         <v>2479</v>
@@ -20681,7 +21062,7 @@
         <v>1056</v>
       </c>
       <c r="C797" t="s">
-        <v>2480</v>
+        <v>3117</v>
       </c>
       <c r="F797" t="s">
         <v>2480</v>
@@ -20695,7 +21076,7 @@
         <v>1457</v>
       </c>
       <c r="C798" t="s">
-        <v>2481</v>
+        <v>3118</v>
       </c>
       <c r="F798" t="s">
         <v>2481</v>
@@ -20709,7 +21090,7 @@
         <v>1458</v>
       </c>
       <c r="C799" t="s">
-        <v>2482</v>
+        <v>3119</v>
       </c>
       <c r="F799" t="s">
         <v>2482</v>
@@ -20723,7 +21104,7 @@
         <v>1047</v>
       </c>
       <c r="C800" t="s">
-        <v>2483</v>
+        <v>3120</v>
       </c>
       <c r="F800" t="s">
         <v>2483</v>
@@ -20737,7 +21118,7 @@
         <v>1048</v>
       </c>
       <c r="C801" t="s">
-        <v>2484</v>
+        <v>3121</v>
       </c>
       <c r="F801" t="s">
         <v>2484</v>
@@ -20751,7 +21132,7 @@
         <v>1450</v>
       </c>
       <c r="C802" t="s">
-        <v>2485</v>
+        <v>3122</v>
       </c>
       <c r="F802" t="s">
         <v>2485</v>
@@ -20765,7 +21146,7 @@
         <v>1448</v>
       </c>
       <c r="C803" t="s">
-        <v>2486</v>
+        <v>3123</v>
       </c>
       <c r="F803" t="s">
         <v>2486</v>
@@ -20779,7 +21160,7 @@
         <v>1449</v>
       </c>
       <c r="C804" t="s">
-        <v>2487</v>
+        <v>3124</v>
       </c>
       <c r="F804" t="s">
         <v>2487</v>
@@ -20821,7 +21202,7 @@
         <v>1680</v>
       </c>
       <c r="C807" t="s">
-        <v>2490</v>
+        <v>3125</v>
       </c>
       <c r="F807" t="s">
         <v>2490</v>
@@ -20835,7 +21216,7 @@
         <v>1582</v>
       </c>
       <c r="C808" t="s">
-        <v>2491</v>
+        <v>3126</v>
       </c>
       <c r="F808" t="s">
         <v>2491</v>
@@ -20849,7 +21230,7 @@
         <v>1583</v>
       </c>
       <c r="C809" t="s">
-        <v>2492</v>
+        <v>3127</v>
       </c>
       <c r="F809" t="s">
         <v>2492</v>
@@ -20863,7 +21244,7 @@
         <v>1674</v>
       </c>
       <c r="C810" t="s">
-        <v>2493</v>
+        <v>3128</v>
       </c>
       <c r="F810" t="s">
         <v>2493</v>
@@ -20877,7 +21258,7 @@
         <v>1134</v>
       </c>
       <c r="C811" t="s">
-        <v>2494</v>
+        <v>3129</v>
       </c>
       <c r="F811" t="s">
         <v>2494</v>
@@ -20905,7 +21286,7 @@
         <v>1676</v>
       </c>
       <c r="C813" t="s">
-        <v>2496</v>
+        <v>3130</v>
       </c>
       <c r="F813" t="s">
         <v>2496</v>
@@ -20975,7 +21356,7 @@
         <v>1136</v>
       </c>
       <c r="C818" t="s">
-        <v>2501</v>
+        <v>3131</v>
       </c>
       <c r="F818" t="s">
         <v>2501</v>
@@ -21031,7 +21412,7 @@
         <v>1648</v>
       </c>
       <c r="C822" t="s">
-        <v>2505</v>
+        <v>3132</v>
       </c>
       <c r="F822" t="s">
         <v>2505</v>
@@ -21045,7 +21426,7 @@
         <v>1647</v>
       </c>
       <c r="C823" t="s">
-        <v>2506</v>
+        <v>3133</v>
       </c>
       <c r="F823" t="s">
         <v>2506</v>
@@ -21073,7 +21454,7 @@
         <v>1064</v>
       </c>
       <c r="C825" t="s">
-        <v>2508</v>
+        <v>3134</v>
       </c>
       <c r="F825" t="s">
         <v>2508</v>
@@ -21129,7 +21510,7 @@
         <v>1464</v>
       </c>
       <c r="C829" t="s">
-        <v>2512</v>
+        <v>3135</v>
       </c>
       <c r="F829" t="s">
         <v>2512</v>
@@ -21143,7 +21524,7 @@
         <v>1465</v>
       </c>
       <c r="C830" t="s">
-        <v>2513</v>
+        <v>3136</v>
       </c>
       <c r="F830" t="s">
         <v>2513</v>
@@ -21157,7 +21538,7 @@
         <v>1461</v>
       </c>
       <c r="C831" t="s">
-        <v>2514</v>
+        <v>3137</v>
       </c>
       <c r="F831" t="s">
         <v>2514</v>
@@ -21185,7 +21566,7 @@
         <v>1468</v>
       </c>
       <c r="C833" t="s">
-        <v>2516</v>
+        <v>3138</v>
       </c>
       <c r="F833" t="s">
         <v>2516</v>
@@ -21241,7 +21622,7 @@
         <v>1487</v>
       </c>
       <c r="C837" t="s">
-        <v>2520</v>
+        <v>3139</v>
       </c>
       <c r="F837" t="s">
         <v>2520</v>
@@ -21255,7 +21636,7 @@
         <v>1488</v>
       </c>
       <c r="C838" t="s">
-        <v>2521</v>
+        <v>3140</v>
       </c>
       <c r="F838" t="s">
         <v>2521</v>
@@ -21451,7 +21832,7 @@
         <v>1482</v>
       </c>
       <c r="C852" t="s">
-        <v>2535</v>
+        <v>3141</v>
       </c>
       <c r="F852" t="s">
         <v>2535</v>
@@ -21507,7 +21888,7 @@
         <v>1485</v>
       </c>
       <c r="C856" t="s">
-        <v>2539</v>
+        <v>3142</v>
       </c>
       <c r="F856" t="s">
         <v>2539</v>
@@ -21521,7 +21902,7 @@
         <v>1486</v>
       </c>
       <c r="C857" t="s">
-        <v>2540</v>
+        <v>3143</v>
       </c>
       <c r="F857" t="s">
         <v>2540</v>
@@ -21549,7 +21930,7 @@
         <v>1491</v>
       </c>
       <c r="C859" t="s">
-        <v>2542</v>
+        <v>3144</v>
       </c>
       <c r="F859" t="s">
         <v>2542</v>
@@ -21563,7 +21944,7 @@
         <v>1492</v>
       </c>
       <c r="C860" t="s">
-        <v>2543</v>
+        <v>3145</v>
       </c>
       <c r="F860" t="s">
         <v>2543</v>
@@ -21605,7 +21986,7 @@
         <v>1493</v>
       </c>
       <c r="C863" t="s">
-        <v>2546</v>
+        <v>3146</v>
       </c>
       <c r="F863" t="s">
         <v>2546</v>
@@ -21619,7 +22000,7 @@
         <v>1071</v>
       </c>
       <c r="C864" t="s">
-        <v>2547</v>
+        <v>3147</v>
       </c>
       <c r="F864" t="s">
         <v>2547</v>
@@ -21633,7 +22014,7 @@
         <v>1380</v>
       </c>
       <c r="C865" t="s">
-        <v>2548</v>
+        <v>3148</v>
       </c>
       <c r="F865" t="s">
         <v>2548</v>
@@ -21647,7 +22028,7 @@
         <v>1381</v>
       </c>
       <c r="C866" t="s">
-        <v>2549</v>
+        <v>3149</v>
       </c>
       <c r="F866" t="s">
         <v>2549</v>
@@ -21661,7 +22042,7 @@
         <v>1392</v>
       </c>
       <c r="C867" t="s">
-        <v>2550</v>
+        <v>3150</v>
       </c>
       <c r="F867" t="s">
         <v>2550</v>
@@ -21675,7 +22056,7 @@
         <v>1393</v>
       </c>
       <c r="C868" t="s">
-        <v>2551</v>
+        <v>3151</v>
       </c>
       <c r="F868" t="s">
         <v>2551</v>
@@ -21689,7 +22070,7 @@
         <v>1390</v>
       </c>
       <c r="C869" t="s">
-        <v>2552</v>
+        <v>3152</v>
       </c>
       <c r="F869" t="s">
         <v>2552</v>
@@ -21703,7 +22084,7 @@
         <v>1391</v>
       </c>
       <c r="C870" t="s">
-        <v>2553</v>
+        <v>3153</v>
       </c>
       <c r="F870" t="s">
         <v>2553</v>
@@ -21717,7 +22098,7 @@
         <v>1010</v>
       </c>
       <c r="C871" t="s">
-        <v>2554</v>
+        <v>3154</v>
       </c>
       <c r="F871" t="s">
         <v>2554</v>
@@ -21731,7 +22112,7 @@
         <v>1387</v>
       </c>
       <c r="C872" t="s">
-        <v>2555</v>
+        <v>3155</v>
       </c>
       <c r="F872" t="s">
         <v>2555</v>
@@ -21745,7 +22126,7 @@
         <v>1388</v>
       </c>
       <c r="C873" t="s">
-        <v>2556</v>
+        <v>3156</v>
       </c>
       <c r="F873" t="s">
         <v>2556</v>
@@ -21759,7 +22140,7 @@
         <v>1394</v>
       </c>
       <c r="C874" t="s">
-        <v>2557</v>
+        <v>3157</v>
       </c>
       <c r="F874" t="s">
         <v>2557</v>
@@ -21773,7 +22154,7 @@
         <v>1389</v>
       </c>
       <c r="C875" t="s">
-        <v>2558</v>
+        <v>3158</v>
       </c>
       <c r="F875" t="s">
         <v>2558</v>
@@ -21787,7 +22168,7 @@
         <v>1011</v>
       </c>
       <c r="C876" t="s">
-        <v>2559</v>
+        <v>3159</v>
       </c>
       <c r="F876" t="s">
         <v>2559</v>
@@ -21801,7 +22182,7 @@
         <v>1171</v>
       </c>
       <c r="C877" t="s">
-        <v>2560</v>
+        <v>3160</v>
       </c>
       <c r="F877" t="s">
         <v>2560</v>
